--- a/WordFrequencies/WWSound_Rough.xlsx
+++ b/WordFrequencies/WWSound_Rough.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drago\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drago\Documents\GitHub\dissertation\WordFrequencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD709D3D-E58D-40F0-A0CD-73F7F6B12879}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDAE60A-56F9-47D6-A1DF-F925B97B7004}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A500D3DB-B663-4CAF-B8A5-84EF306E3DDD}"/>
+    <workbookView xWindow="-165" yWindow="0" windowWidth="5130" windowHeight="7695" xr2:uid="{A500D3DB-B663-4CAF-B8A5-84EF306E3DDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="490">
   <si>
     <t>Ranking</t>
   </si>
@@ -351,9 +351,6 @@
     <t>unheard</t>
   </si>
   <si>
-    <t>knoll</t>
-  </si>
-  <si>
     <t>saying</t>
   </si>
   <si>
@@ -363,9 +360,6 @@
     <t>chime</t>
   </si>
   <si>
-    <t>sungilt</t>
-  </si>
-  <si>
     <t>bards</t>
   </si>
   <si>
@@ -636,18 +630,12 @@
     <t>blackbird</t>
   </si>
   <si>
-    <t>seraphim</t>
-  </si>
-  <si>
     <t>resounded</t>
   </si>
   <si>
     <t>profess</t>
   </si>
   <si>
-    <t>jubilee</t>
-  </si>
-  <si>
     <t>instruments</t>
   </si>
   <si>
@@ -699,9 +687,6 @@
     <t>rung</t>
   </si>
   <si>
-    <t>merrymak</t>
-  </si>
-  <si>
     <t>recit</t>
   </si>
   <si>
@@ -978,9 +963,6 @@
     <t>applauds</t>
   </si>
   <si>
-    <t>pantomime</t>
-  </si>
-  <si>
     <t>hearkened</t>
   </si>
   <si>
@@ -1504,13 +1486,34 @@
   </si>
   <si>
     <t>oracles</t>
+  </si>
+  <si>
+    <t>Sound Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verb </t>
+  </si>
+  <si>
+    <t>Part of Speech</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noun </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjective </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1518,13 +1521,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1539,8 +1568,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1884,26 +1917,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8E6505-4C82-4344-B12E-5F553B5E1F84}">
-  <dimension ref="A1:C488"/>
+  <dimension ref="A1:O482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A488" sqref="A488:C488"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:O94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>138</v>
       </c>
@@ -1913,8 +1958,18 @@
       <c r="C2">
         <v>1034</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>175</v>
       </c>
@@ -1924,8 +1979,18 @@
       <c r="C3">
         <v>913</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>5.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>184</v>
       </c>
@@ -1935,8 +2000,14 @@
       <c r="C4">
         <v>887</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>230</v>
       </c>
@@ -1946,8 +2017,11 @@
       <c r="C5">
         <v>759</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>238</v>
       </c>
@@ -1957,8 +2031,14 @@
       <c r="C6">
         <v>739</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>271</v>
       </c>
@@ -1968,8 +2048,14 @@
       <c r="C7">
         <v>660</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>275</v>
       </c>
@@ -1979,8 +2065,14 @@
       <c r="C8">
         <v>642</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>279</v>
       </c>
@@ -1990,8 +2082,14 @@
       <c r="C9">
         <v>637</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>281</v>
       </c>
@@ -2001,8 +2099,14 @@
       <c r="C10">
         <v>635</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>345</v>
       </c>
@@ -2012,8 +2116,11 @@
       <c r="C11">
         <v>517</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>447</v>
       </c>
@@ -2023,8 +2130,14 @@
       <c r="C12">
         <v>394</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>489</v>
       </c>
@@ -2034,8 +2147,14 @@
       <c r="C13">
         <v>362</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>492</v>
       </c>
@@ -2045,8 +2164,14 @@
       <c r="C14">
         <v>358</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>509</v>
       </c>
@@ -2056,8 +2181,14 @@
       <c r="C15">
         <v>343</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>543</v>
       </c>
@@ -2067,8 +2198,14 @@
       <c r="C16">
         <v>315</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>550</v>
       </c>
@@ -2078,8 +2215,14 @@
       <c r="C17">
         <v>310</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>586</v>
       </c>
@@ -2089,8 +2232,14 @@
       <c r="C18">
         <v>283</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>604</v>
       </c>
@@ -2100,8 +2249,14 @@
       <c r="C19">
         <v>276</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>610</v>
       </c>
@@ -2111,8 +2266,14 @@
       <c r="C20">
         <v>272</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>5.5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>629</v>
       </c>
@@ -2122,8 +2283,14 @@
       <c r="C21">
         <v>263</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>658</v>
       </c>
@@ -2133,8 +2300,14 @@
       <c r="C22">
         <v>248</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>672</v>
       </c>
@@ -2144,8 +2317,14 @@
       <c r="C23">
         <v>240</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>679</v>
       </c>
@@ -2155,8 +2334,14 @@
       <c r="C24">
         <v>235</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>685</v>
       </c>
@@ -2166,8 +2351,14 @@
       <c r="C25">
         <v>232</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>709</v>
       </c>
@@ -2177,8 +2368,14 @@
       <c r="C26">
         <v>221</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>718</v>
       </c>
@@ -2188,8 +2385,11 @@
       <c r="C27">
         <v>216</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>752</v>
       </c>
@@ -2199,8 +2399,14 @@
       <c r="C28">
         <v>204</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>774</v>
       </c>
@@ -2210,8 +2416,14 @@
       <c r="C29">
         <v>197</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>826</v>
       </c>
@@ -2221,8 +2433,14 @@
       <c r="C30">
         <v>176</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>833</v>
       </c>
@@ -2232,8 +2450,14 @@
       <c r="C31">
         <v>173</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>861</v>
       </c>
@@ -2243,8 +2467,14 @@
       <c r="C32">
         <v>167</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>990</v>
       </c>
@@ -2254,8 +2484,14 @@
       <c r="C33">
         <v>138</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1016</v>
       </c>
@@ -2265,8 +2501,14 @@
       <c r="C34">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1130</v>
       </c>
@@ -2276,8 +2518,14 @@
       <c r="C35">
         <v>115</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1196</v>
       </c>
@@ -2287,8 +2535,14 @@
       <c r="C36">
         <v>106</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1206</v>
       </c>
@@ -2298,8 +2552,14 @@
       <c r="C37">
         <v>104</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1222</v>
       </c>
@@ -2309,8 +2569,24 @@
       <c r="C38">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>484</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1352</v>
       </c>
@@ -2320,8 +2596,18 @@
       <c r="C39">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>487</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1356</v>
       </c>
@@ -2331,8 +2617,18 @@
       <c r="C40">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>484</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1373</v>
       </c>
@@ -2342,8 +2638,14 @@
       <c r="C41">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1404</v>
       </c>
@@ -2353,8 +2655,14 @@
       <c r="C42">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1443</v>
       </c>
@@ -2364,8 +2672,14 @@
       <c r="C43">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1517</v>
       </c>
@@ -2375,8 +2689,14 @@
       <c r="C44">
         <v>73</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1548</v>
       </c>
@@ -2386,8 +2706,14 @@
       <c r="C45">
         <v>70</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1593</v>
       </c>
@@ -2397,8 +2723,14 @@
       <c r="C46">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1685</v>
       </c>
@@ -2408,8 +2740,14 @@
       <c r="C47">
         <v>61</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1730</v>
       </c>
@@ -2419,8 +2757,14 @@
       <c r="C48">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1775</v>
       </c>
@@ -2430,8 +2774,14 @@
       <c r="C49">
         <v>55</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1786</v>
       </c>
@@ -2441,8 +2791,11 @@
       <c r="C50">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1803</v>
       </c>
@@ -2452,8 +2805,14 @@
       <c r="C51">
         <v>54</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1808</v>
       </c>
@@ -2463,8 +2822,14 @@
       <c r="C52">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1869</v>
       </c>
@@ -2474,8 +2839,14 @@
       <c r="C53">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1942</v>
       </c>
@@ -2485,8 +2856,14 @@
       <c r="C54">
         <v>47</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1972</v>
       </c>
@@ -2496,8 +2873,14 @@
       <c r="C55">
         <v>46</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2009</v>
       </c>
@@ -2507,8 +2890,11 @@
       <c r="C56">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2028</v>
       </c>
@@ -2518,8 +2904,14 @@
       <c r="C57">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2071</v>
       </c>
@@ -2529,8 +2921,14 @@
       <c r="C58">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2100</v>
       </c>
@@ -2540,8 +2938,14 @@
       <c r="C59">
         <v>42</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2109</v>
       </c>
@@ -2551,8 +2955,14 @@
       <c r="C60">
         <v>42</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2192</v>
       </c>
@@ -2562,8 +2972,14 @@
       <c r="C61">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2274</v>
       </c>
@@ -2573,8 +2989,14 @@
       <c r="C62">
         <v>37</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2275</v>
       </c>
@@ -2584,8 +3006,24 @@
       <c r="C63">
         <v>37</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>487</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2316</v>
       </c>
@@ -2595,8 +3033,18 @@
       <c r="C64">
         <v>36</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>484</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2320</v>
       </c>
@@ -2606,8 +3054,18 @@
       <c r="C65">
         <v>36</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>484</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2359</v>
       </c>
@@ -2617,8 +3075,14 @@
       <c r="C66">
         <v>35</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2390</v>
       </c>
@@ -2628,8 +3092,14 @@
       <c r="C67">
         <v>34</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2391</v>
       </c>
@@ -2639,8 +3109,14 @@
       <c r="C68">
         <v>34</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2401</v>
       </c>
@@ -2650,8 +3126,14 @@
       <c r="C69">
         <v>34</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2441</v>
       </c>
@@ -2661,8 +3143,14 @@
       <c r="C70">
         <v>33</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2486</v>
       </c>
@@ -2672,8 +3160,14 @@
       <c r="C71">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2553</v>
       </c>
@@ -2683,8 +3177,14 @@
       <c r="C72">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2581</v>
       </c>
@@ -2694,8 +3194,14 @@
       <c r="C73">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2662</v>
       </c>
@@ -2705,8 +3211,14 @@
       <c r="C74">
         <v>28</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2663</v>
       </c>
@@ -2716,8 +3228,14 @@
       <c r="C75">
         <v>28</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2664</v>
       </c>
@@ -2727,8 +3245,14 @@
       <c r="C76">
         <v>28</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2754</v>
       </c>
@@ -2738,8 +3262,14 @@
       <c r="C77">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2770</v>
       </c>
@@ -2749,8 +3279,14 @@
       <c r="C78">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2784</v>
       </c>
@@ -2760,8 +3296,14 @@
       <c r="C79">
         <v>26</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2800</v>
       </c>
@@ -2771,8 +3313,14 @@
       <c r="C80">
         <v>26</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2803</v>
       </c>
@@ -2782,8 +3330,14 @@
       <c r="C81">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>5.5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2840</v>
       </c>
@@ -2793,8 +3347,14 @@
       <c r="C82">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2851</v>
       </c>
@@ -2804,8 +3364,14 @@
       <c r="C83">
         <v>25</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2899</v>
       </c>
@@ -2815,8 +3381,14 @@
       <c r="C84">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2919</v>
       </c>
@@ -2826,8 +3398,14 @@
       <c r="C85">
         <v>24</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2933</v>
       </c>
@@ -2837,8 +3415,14 @@
       <c r="C86">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2973</v>
       </c>
@@ -2848,8 +3432,14 @@
       <c r="C87">
         <v>23</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>5.5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3035</v>
       </c>
@@ -2859,8 +3449,14 @@
       <c r="C88">
         <v>23</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3066</v>
       </c>
@@ -2870,8 +3466,14 @@
       <c r="C89">
         <v>22</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3091</v>
       </c>
@@ -2881,8 +3483,14 @@
       <c r="C90">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3112</v>
       </c>
@@ -2892,8 +3500,14 @@
       <c r="C91">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3119</v>
       </c>
@@ -2903,8 +3517,14 @@
       <c r="C92">
         <v>22</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3150</v>
       </c>
@@ -2914,8 +3534,14 @@
       <c r="C93">
         <v>21</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>5.5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3197</v>
       </c>
@@ -2925,8 +3551,14 @@
       <c r="C94">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3219</v>
       </c>
@@ -2936,8 +3568,14 @@
       <c r="C95">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3228</v>
       </c>
@@ -2947,8 +3585,11 @@
       <c r="C96">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3316</v>
       </c>
@@ -2958,8 +3599,14 @@
       <c r="C97">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3337</v>
       </c>
@@ -2969,8 +3616,14 @@
       <c r="C98">
         <v>19</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3501</v>
       </c>
@@ -2980,8 +3633,14 @@
       <c r="C99">
         <v>18</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3533</v>
       </c>
@@ -2991,8 +3650,14 @@
       <c r="C100">
         <v>18</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3537</v>
       </c>
@@ -3002,8 +3667,14 @@
       <c r="C101">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3552</v>
       </c>
@@ -3013,10 +3684,16 @@
       <c r="C102">
         <v>17</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>5.5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>3585</v>
+        <v>3589</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
@@ -3024,10 +3701,16 @@
       <c r="C103">
         <v>17</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>3589</v>
+        <v>3598</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
@@ -3035,21 +3718,33 @@
       <c r="C104">
         <v>17</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>3598</v>
+        <v>3645</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
       <c r="C105">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>3645</v>
+        <v>3724</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
@@ -3057,32 +3752,50 @@
       <c r="C106">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>3699</v>
+        <v>3738</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
       </c>
       <c r="C107">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D107">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>3724</v>
+        <v>3748</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
       </c>
       <c r="C108">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>3738</v>
+        <v>3750</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -3090,32 +3803,47 @@
       <c r="C109">
         <v>15</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>3748</v>
+        <v>3860</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
       </c>
       <c r="C110">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>3750</v>
+        <v>3866</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
       </c>
       <c r="C111">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D111">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>3860</v>
+        <v>3877</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
@@ -3123,10 +3851,16 @@
       <c r="C112">
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>3866</v>
+        <v>3906</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
@@ -3134,10 +3868,16 @@
       <c r="C113">
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>3877</v>
+        <v>3945</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
@@ -3145,10 +3885,16 @@
       <c r="C114">
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>3906</v>
+        <v>3948</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
@@ -3156,43 +3902,67 @@
       <c r="C115">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>3945</v>
+        <v>4047</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
       </c>
       <c r="C116">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D116">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>3948</v>
+        <v>4104</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
       </c>
       <c r="C117">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>4047</v>
+        <v>4144</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
       </c>
       <c r="C118">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>4104</v>
+        <v>4159</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
@@ -3200,65 +3970,98 @@
       <c r="C119">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>4144</v>
+        <v>4244</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
       </c>
       <c r="C120">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>4159</v>
+        <v>4359</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
       </c>
       <c r="C121">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>4244</v>
+        <v>4375</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
       </c>
       <c r="C122">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>4359</v>
+        <v>4504</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
       </c>
       <c r="C123">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>4375</v>
+        <v>4591</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
       </c>
       <c r="C124">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>4504</v>
+        <v>4599</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
@@ -3266,32 +4069,47 @@
       <c r="C125">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>5.5</v>
+      </c>
+      <c r="E125" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>4591</v>
+        <v>4681</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
       </c>
       <c r="C126">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>4599</v>
+        <v>4695</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
       </c>
       <c r="C127">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>4681</v>
+        <v>4729</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
@@ -3299,10 +4117,16 @@
       <c r="C128">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>4695</v>
+        <v>4746</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
@@ -3310,10 +4134,16 @@
       <c r="C129">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>4729</v>
+        <v>4785</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
@@ -3321,10 +4151,16 @@
       <c r="C130">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>4746</v>
+        <v>4810</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
@@ -3332,10 +4168,16 @@
       <c r="C131">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>5.5</v>
+      </c>
+      <c r="E131" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>4785</v>
+        <v>4816</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
@@ -3343,32 +4185,50 @@
       <c r="C132">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>4810</v>
+        <v>4891</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
       </c>
       <c r="C133">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>4816</v>
+        <v>4968</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
       </c>
       <c r="C134">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>4891</v>
+        <v>4994</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
@@ -3376,10 +4236,16 @@
       <c r="C135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>7</v>
+      </c>
+      <c r="E135" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>4968</v>
+        <v>5017</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
@@ -3387,10 +4253,16 @@
       <c r="C136">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>4994</v>
+        <v>5095</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
@@ -3398,10 +4270,16 @@
       <c r="C137">
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>8</v>
+      </c>
+      <c r="E137" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>5017</v>
+        <v>5117</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
@@ -3409,10 +4287,16 @@
       <c r="C138">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>5095</v>
+        <v>5128</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
@@ -3420,32 +4304,50 @@
       <c r="C139">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>5117</v>
+        <v>5179</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
       </c>
       <c r="C140">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>5128</v>
+        <v>5180</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
       </c>
       <c r="C141">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <v>10</v>
+      </c>
+      <c r="E141" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>5179</v>
+        <v>5204</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -3453,10 +4355,16 @@
       <c r="C142">
         <v>6</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>5180</v>
+        <v>5208</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3464,10 +4372,16 @@
       <c r="C143">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>10</v>
+      </c>
+      <c r="E143" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>5204</v>
+        <v>5220</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3475,10 +4389,16 @@
       <c r="C144">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>5208</v>
+        <v>5222</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3486,10 +4406,16 @@
       <c r="C145">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>5.5</v>
+      </c>
+      <c r="E145" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>5220</v>
+        <v>5249</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3497,10 +4423,16 @@
       <c r="C146">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>5.5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>5222</v>
+        <v>5250</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3508,10 +4440,16 @@
       <c r="C147">
         <v>6</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>5249</v>
+        <v>5322</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3519,10 +4457,16 @@
       <c r="C148">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>5250</v>
+        <v>5340</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3530,10 +4474,16 @@
       <c r="C149">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>5322</v>
+        <v>5498</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3541,32 +4491,50 @@
       <c r="C150">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>5340</v>
+        <v>5559</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
       </c>
       <c r="C151">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>5498</v>
+        <v>5604</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D152">
+        <v>5.5</v>
+      </c>
+      <c r="E152" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>5559</v>
+        <v>5622</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3574,10 +4542,16 @@
       <c r="C153">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>5.5</v>
+      </c>
+      <c r="E153" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>5604</v>
+        <v>5731</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3585,10 +4559,16 @@
       <c r="C154">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>7</v>
+      </c>
+      <c r="E154" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>5622</v>
+        <v>5762</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3596,10 +4576,16 @@
       <c r="C155">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>9</v>
+      </c>
+      <c r="E155" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>5731</v>
+        <v>5790</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3607,10 +4593,16 @@
       <c r="C156">
         <v>5</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>5762</v>
+        <v>5860</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3618,10 +4610,16 @@
       <c r="C157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>5790</v>
+        <v>5937</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3629,10 +4627,16 @@
       <c r="C158">
         <v>5</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>6</v>
+      </c>
+      <c r="E158" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>5860</v>
+        <v>6007</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3640,10 +4644,16 @@
       <c r="C159">
         <v>5</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>5937</v>
+        <v>6058</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3651,32 +4661,50 @@
       <c r="C160">
         <v>5</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>6007</v>
+        <v>6149</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D161">
+        <v>10</v>
+      </c>
+      <c r="E161" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>6058</v>
+        <v>6193</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>6149</v>
+        <v>6351</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3684,10 +4712,16 @@
       <c r="C163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>6193</v>
+        <v>6392</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3695,10 +4729,16 @@
       <c r="C164">
         <v>4</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>5.5</v>
+      </c>
+      <c r="E164" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>6351</v>
+        <v>6409</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3706,10 +4746,16 @@
       <c r="C165">
         <v>4</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>6392</v>
+        <v>6443</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3717,10 +4763,16 @@
       <c r="C166">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>7</v>
+      </c>
+      <c r="E166" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>6409</v>
+        <v>6463</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3728,10 +4780,16 @@
       <c r="C167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>3</v>
+      </c>
+      <c r="E167" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>6443</v>
+        <v>6468</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3739,10 +4797,16 @@
       <c r="C168">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>6463</v>
+        <v>6556</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3750,10 +4814,16 @@
       <c r="C169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>5</v>
+      </c>
+      <c r="E169" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>6468</v>
+        <v>6573</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3761,10 +4831,16 @@
       <c r="C170">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>4</v>
+      </c>
+      <c r="E170" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>6556</v>
+        <v>6604</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -3772,10 +4848,16 @@
       <c r="C171">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>10</v>
+      </c>
+      <c r="E171" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>6573</v>
+        <v>6625</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -3783,10 +4865,16 @@
       <c r="C172">
         <v>4</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>6604</v>
+        <v>6628</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -3794,10 +4882,16 @@
       <c r="C173">
         <v>4</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>6625</v>
+        <v>6812</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -3805,32 +4899,50 @@
       <c r="C174">
         <v>4</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>6628</v>
+        <v>6867</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+      <c r="E175" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>6812</v>
+        <v>6934</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>8</v>
+      </c>
+      <c r="E176" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>6867</v>
+        <v>7014</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -3838,10 +4950,16 @@
       <c r="C177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>6934</v>
+        <v>7032</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -3849,10 +4967,16 @@
       <c r="C178">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>7014</v>
+        <v>7095</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -3860,10 +4984,13 @@
       <c r="C179">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>7032</v>
+        <v>7108</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -3871,10 +4998,16 @@
       <c r="C180">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>7095</v>
+        <v>7135</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -3882,10 +5015,16 @@
       <c r="C181">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>3</v>
+      </c>
+      <c r="E181" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>7108</v>
+        <v>7247</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -3893,10 +5032,16 @@
       <c r="C182">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>7135</v>
+        <v>7253</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -3904,10 +5049,16 @@
       <c r="C183">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>7247</v>
+        <v>7257</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -3915,10 +5066,16 @@
       <c r="C184">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>7</v>
+      </c>
+      <c r="E184" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>7253</v>
+        <v>7284</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -3926,10 +5083,16 @@
       <c r="C185">
         <v>3</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>7257</v>
+        <v>7305</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -3937,10 +5100,16 @@
       <c r="C186">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>10</v>
+      </c>
+      <c r="E186" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>7284</v>
+        <v>7371</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -3948,10 +5117,16 @@
       <c r="C187">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>7305</v>
+        <v>7381</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -3959,10 +5134,16 @@
       <c r="C188">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>5.5</v>
+      </c>
+      <c r="E188" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>7371</v>
+        <v>7432</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -3970,10 +5151,16 @@
       <c r="C189">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>10</v>
+      </c>
+      <c r="E189" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>7381</v>
+        <v>7514</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -3981,10 +5168,16 @@
       <c r="C190">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>3</v>
+      </c>
+      <c r="E190" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>7432</v>
+        <v>7602</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -3992,10 +5185,16 @@
       <c r="C191">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>3</v>
+      </c>
+      <c r="E191" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>7514</v>
+        <v>7683</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4003,10 +5202,16 @@
       <c r="C192">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>9</v>
+      </c>
+      <c r="E192" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>7602</v>
+        <v>7690</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4014,10 +5219,16 @@
       <c r="C193">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>7683</v>
+        <v>7717</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4025,10 +5236,16 @@
       <c r="C194">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>3</v>
+      </c>
+      <c r="E194" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>7690</v>
+        <v>7740</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4036,10 +5253,16 @@
       <c r="C195">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>7717</v>
+        <v>7761</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4047,10 +5270,16 @@
       <c r="C196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>7</v>
+      </c>
+      <c r="E196" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>7740</v>
+        <v>7809</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4058,10 +5287,16 @@
       <c r="C197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>3</v>
+      </c>
+      <c r="E197" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>7759</v>
+        <v>7868</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4069,10 +5304,16 @@
       <c r="C198">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>7761</v>
+        <v>7884</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4080,10 +5321,16 @@
       <c r="C199">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>7809</v>
+        <v>7942</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4091,10 +5338,16 @@
       <c r="C200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>7821</v>
+        <v>7946</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4102,10 +5355,16 @@
       <c r="C201">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>7</v>
+      </c>
+      <c r="E201" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>7868</v>
+        <v>7959</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4113,10 +5372,16 @@
       <c r="C202">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>7884</v>
+        <v>8009</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4124,10 +5389,16 @@
       <c r="C203">
         <v>3</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>5</v>
+      </c>
+      <c r="E203" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>7942</v>
+        <v>8010</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4135,10 +5406,16 @@
       <c r="C204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>7</v>
+      </c>
+      <c r="E204" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>7946</v>
+        <v>8096</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4146,10 +5423,16 @@
       <c r="C205">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>7959</v>
+        <v>8110</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4157,54 +5440,84 @@
       <c r="C206">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>8</v>
+      </c>
+      <c r="E206" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>8009</v>
+        <v>8150</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+      <c r="E207" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>8010</v>
+        <v>8157</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>5.5</v>
+      </c>
+      <c r="E208" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>8096</v>
+        <v>8279</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+      <c r="E209" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>8110</v>
+        <v>8378</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>8150</v>
+        <v>8401</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4212,10 +5525,16 @@
       <c r="C211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>8157</v>
+        <v>8405</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4223,10 +5542,16 @@
       <c r="C212">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>3</v>
+      </c>
+      <c r="E212" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>8279</v>
+        <v>8406</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4234,10 +5559,16 @@
       <c r="C213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>3</v>
+      </c>
+      <c r="E213" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>8378</v>
+        <v>8512</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4245,10 +5576,16 @@
       <c r="C214">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>8401</v>
+        <v>8593</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4256,10 +5593,16 @@
       <c r="C215">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>7</v>
+      </c>
+      <c r="E215" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>8405</v>
+        <v>8609</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4267,10 +5610,13 @@
       <c r="C216">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>8406</v>
+        <v>8709</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4278,10 +5624,16 @@
       <c r="C217">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>5.5</v>
+      </c>
+      <c r="E217" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>8512</v>
+        <v>8796</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4289,10 +5641,16 @@
       <c r="C218">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>6</v>
+      </c>
+      <c r="E218" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>8577</v>
+        <v>8844</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4300,10 +5658,16 @@
       <c r="C219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>3</v>
+      </c>
+      <c r="E219" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>8593</v>
+        <v>8846</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4311,10 +5675,16 @@
       <c r="C220">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>3</v>
+      </c>
+      <c r="E220" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>8609</v>
+        <v>8850</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4322,10 +5692,16 @@
       <c r="C221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>8</v>
+      </c>
+      <c r="E221" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>8709</v>
+        <v>8858</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4333,10 +5709,16 @@
       <c r="C222">
         <v>2</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>3</v>
+      </c>
+      <c r="E222" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>8796</v>
+        <v>8908</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4344,10 +5726,16 @@
       <c r="C223">
         <v>2</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>8</v>
+      </c>
+      <c r="E223" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>8844</v>
+        <v>8926</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4355,10 +5743,16 @@
       <c r="C224">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>6</v>
+      </c>
+      <c r="E224" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>8846</v>
+        <v>8937</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4366,10 +5760,16 @@
       <c r="C225">
         <v>2</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>5</v>
+      </c>
+      <c r="E225" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>8850</v>
+        <v>9007</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4377,10 +5777,16 @@
       <c r="C226">
         <v>2</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>3</v>
+      </c>
+      <c r="E226" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>8858</v>
+        <v>9059</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4388,10 +5794,16 @@
       <c r="C227">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>3</v>
+      </c>
+      <c r="E227" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>8908</v>
+        <v>9060</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -4399,10 +5811,16 @@
       <c r="C228">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>8926</v>
+        <v>9110</v>
       </c>
       <c r="B229" t="s">
         <v>230</v>
@@ -4410,10 +5828,16 @@
       <c r="C229">
         <v>2</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>8937</v>
+        <v>9122</v>
       </c>
       <c r="B230" t="s">
         <v>231</v>
@@ -4421,10 +5845,16 @@
       <c r="C230">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>3</v>
+      </c>
+      <c r="E230" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>9007</v>
+        <v>9172</v>
       </c>
       <c r="B231" t="s">
         <v>232</v>
@@ -4432,10 +5862,16 @@
       <c r="C231">
         <v>2</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>3</v>
+      </c>
+      <c r="E231" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>9059</v>
+        <v>9174</v>
       </c>
       <c r="B232" t="s">
         <v>233</v>
@@ -4443,10 +5879,16 @@
       <c r="C232">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>3</v>
+      </c>
+      <c r="E232" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>9060</v>
+        <v>9220</v>
       </c>
       <c r="B233" t="s">
         <v>234</v>
@@ -4454,10 +5896,16 @@
       <c r="C233">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>9110</v>
+        <v>9243</v>
       </c>
       <c r="B234" t="s">
         <v>235</v>
@@ -4465,10 +5913,16 @@
       <c r="C234">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>9122</v>
+        <v>9324</v>
       </c>
       <c r="B235" t="s">
         <v>236</v>
@@ -4476,10 +5930,16 @@
       <c r="C235">
         <v>2</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="E235" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>9172</v>
+        <v>9408</v>
       </c>
       <c r="B236" t="s">
         <v>237</v>
@@ -4487,10 +5947,16 @@
       <c r="C236">
         <v>2</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>9174</v>
+        <v>9449</v>
       </c>
       <c r="B237" t="s">
         <v>238</v>
@@ -4498,10 +5964,16 @@
       <c r="C237">
         <v>2</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>9220</v>
+        <v>9477</v>
       </c>
       <c r="B238" t="s">
         <v>239</v>
@@ -4509,10 +5981,16 @@
       <c r="C238">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>9243</v>
+        <v>9494</v>
       </c>
       <c r="B239" t="s">
         <v>240</v>
@@ -4520,10 +5998,16 @@
       <c r="C239">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>5.5</v>
+      </c>
+      <c r="E239" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>9324</v>
+        <v>9533</v>
       </c>
       <c r="B240" t="s">
         <v>241</v>
@@ -4531,10 +6015,16 @@
       <c r="C240">
         <v>2</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>9408</v>
+        <v>9561</v>
       </c>
       <c r="B241" t="s">
         <v>242</v>
@@ -4542,10 +6032,16 @@
       <c r="C241">
         <v>2</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>5</v>
+      </c>
+      <c r="E241" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>9449</v>
+        <v>9569</v>
       </c>
       <c r="B242" t="s">
         <v>243</v>
@@ -4553,10 +6049,16 @@
       <c r="C242">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>6</v>
+      </c>
+      <c r="E242" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>9477</v>
+        <v>9575</v>
       </c>
       <c r="B243" t="s">
         <v>244</v>
@@ -4564,10 +6066,16 @@
       <c r="C243">
         <v>2</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>5</v>
+      </c>
+      <c r="E243" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>9494</v>
+        <v>9861</v>
       </c>
       <c r="B244" t="s">
         <v>245</v>
@@ -4575,10 +6083,16 @@
       <c r="C244">
         <v>2</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>7</v>
+      </c>
+      <c r="E244" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>9533</v>
+        <v>9947</v>
       </c>
       <c r="B245" t="s">
         <v>246</v>
@@ -4586,10 +6100,16 @@
       <c r="C245">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>9561</v>
+        <v>9951</v>
       </c>
       <c r="B246" t="s">
         <v>247</v>
@@ -4597,10 +6117,16 @@
       <c r="C246">
         <v>2</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="E246" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>9569</v>
+        <v>9986</v>
       </c>
       <c r="B247" t="s">
         <v>248</v>
@@ -4608,10 +6134,16 @@
       <c r="C247">
         <v>2</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>2</v>
+      </c>
+      <c r="E247" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>9575</v>
+        <v>10048</v>
       </c>
       <c r="B248" t="s">
         <v>249</v>
@@ -4619,10 +6151,16 @@
       <c r="C248">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>6</v>
+      </c>
+      <c r="E248" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>9861</v>
+        <v>10081</v>
       </c>
       <c r="B249" t="s">
         <v>250</v>
@@ -4630,10 +6168,16 @@
       <c r="C249">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>9947</v>
+        <v>10210</v>
       </c>
       <c r="B250" t="s">
         <v>251</v>
@@ -4641,10 +6185,16 @@
       <c r="C250">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>9951</v>
+        <v>10381</v>
       </c>
       <c r="B251" t="s">
         <v>252</v>
@@ -4652,10 +6202,16 @@
       <c r="C251">
         <v>2</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>3</v>
+      </c>
+      <c r="E251" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>9986</v>
+        <v>10411</v>
       </c>
       <c r="B252" t="s">
         <v>253</v>
@@ -4663,10 +6219,16 @@
       <c r="C252">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="E252" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>10048</v>
+        <v>10566</v>
       </c>
       <c r="B253" t="s">
         <v>254</v>
@@ -4674,65 +6236,101 @@
       <c r="C253">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>3</v>
+      </c>
+      <c r="E253" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>10081</v>
+        <v>10697</v>
       </c>
       <c r="B254" t="s">
         <v>255</v>
       </c>
       <c r="C254">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>10210</v>
+        <v>10740</v>
       </c>
       <c r="B255" t="s">
         <v>256</v>
       </c>
       <c r="C255">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>3</v>
+      </c>
+      <c r="E255" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>10381</v>
+        <v>10878</v>
       </c>
       <c r="B256" t="s">
         <v>257</v>
       </c>
       <c r="C256">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>7</v>
+      </c>
+      <c r="E256" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>10411</v>
+        <v>10884</v>
       </c>
       <c r="B257" t="s">
         <v>258</v>
       </c>
       <c r="C257">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>3</v>
+      </c>
+      <c r="E257" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>10566</v>
+        <v>10889</v>
       </c>
       <c r="B258" t="s">
         <v>259</v>
       </c>
       <c r="C258">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>10697</v>
+        <v>10958</v>
       </c>
       <c r="B259" t="s">
         <v>260</v>
@@ -4740,10 +6338,16 @@
       <c r="C259">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>3</v>
+      </c>
+      <c r="E259" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>10740</v>
+        <v>11025</v>
       </c>
       <c r="B260" t="s">
         <v>261</v>
@@ -4751,10 +6355,16 @@
       <c r="C260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <v>2</v>
+      </c>
+      <c r="E260" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>10878</v>
+        <v>11086</v>
       </c>
       <c r="B261" t="s">
         <v>262</v>
@@ -4762,10 +6372,16 @@
       <c r="C261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <v>3</v>
+      </c>
+      <c r="E261" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>10884</v>
+        <v>11100</v>
       </c>
       <c r="B262" t="s">
         <v>263</v>
@@ -4773,10 +6389,16 @@
       <c r="C262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <v>5.5</v>
+      </c>
+      <c r="E262" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>10889</v>
+        <v>11372</v>
       </c>
       <c r="B263" t="s">
         <v>264</v>
@@ -4784,10 +6406,16 @@
       <c r="C263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <v>5</v>
+      </c>
+      <c r="E263" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>10958</v>
+        <v>11480</v>
       </c>
       <c r="B264" t="s">
         <v>265</v>
@@ -4795,10 +6423,16 @@
       <c r="C264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <v>6</v>
+      </c>
+      <c r="E264" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>11025</v>
+        <v>11494</v>
       </c>
       <c r="B265" t="s">
         <v>266</v>
@@ -4806,10 +6440,16 @@
       <c r="C265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <v>3</v>
+      </c>
+      <c r="E265" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>11086</v>
+        <v>11574</v>
       </c>
       <c r="B266" t="s">
         <v>267</v>
@@ -4817,10 +6457,16 @@
       <c r="C266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <v>7</v>
+      </c>
+      <c r="E266" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>11100</v>
+        <v>11620</v>
       </c>
       <c r="B267" t="s">
         <v>268</v>
@@ -4828,10 +6474,16 @@
       <c r="C267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <v>3</v>
+      </c>
+      <c r="E267" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>11372</v>
+        <v>11629</v>
       </c>
       <c r="B268" t="s">
         <v>269</v>
@@ -4839,10 +6491,16 @@
       <c r="C268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <v>3</v>
+      </c>
+      <c r="E268" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>11480</v>
+        <v>11714</v>
       </c>
       <c r="B269" t="s">
         <v>270</v>
@@ -4850,10 +6508,16 @@
       <c r="C269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <v>7</v>
+      </c>
+      <c r="E269" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>11494</v>
+        <v>11720</v>
       </c>
       <c r="B270" t="s">
         <v>271</v>
@@ -4861,10 +6525,16 @@
       <c r="C270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <v>3</v>
+      </c>
+      <c r="E270" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>11574</v>
+        <v>11724</v>
       </c>
       <c r="B271" t="s">
         <v>272</v>
@@ -4872,10 +6542,16 @@
       <c r="C271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <v>3</v>
+      </c>
+      <c r="E271" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>11620</v>
+        <v>11762</v>
       </c>
       <c r="B272" t="s">
         <v>273</v>
@@ -4883,10 +6559,16 @@
       <c r="C272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <v>8</v>
+      </c>
+      <c r="E272" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>11629</v>
+        <v>11804</v>
       </c>
       <c r="B273" t="s">
         <v>274</v>
@@ -4894,10 +6576,16 @@
       <c r="C273">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <v>9</v>
+      </c>
+      <c r="E273" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>11714</v>
+        <v>11854</v>
       </c>
       <c r="B274" t="s">
         <v>275</v>
@@ -4905,10 +6593,16 @@
       <c r="C274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <v>3</v>
+      </c>
+      <c r="E274" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>11720</v>
+        <v>11855</v>
       </c>
       <c r="B275" t="s">
         <v>276</v>
@@ -4916,10 +6610,16 @@
       <c r="C275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <v>3</v>
+      </c>
+      <c r="E275" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>11724</v>
+        <v>11928</v>
       </c>
       <c r="B276" t="s">
         <v>277</v>
@@ -4927,10 +6627,16 @@
       <c r="C276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <v>3</v>
+      </c>
+      <c r="E276" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>11762</v>
+        <v>11943</v>
       </c>
       <c r="B277" t="s">
         <v>278</v>
@@ -4938,10 +6644,16 @@
       <c r="C277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D277">
+        <v>3</v>
+      </c>
+      <c r="E277" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>11804</v>
+        <v>11982</v>
       </c>
       <c r="B278" t="s">
         <v>279</v>
@@ -4949,10 +6661,16 @@
       <c r="C278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D278">
+        <v>4</v>
+      </c>
+      <c r="E278" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>11854</v>
+        <v>12052</v>
       </c>
       <c r="B279" t="s">
         <v>280</v>
@@ -4960,10 +6678,16 @@
       <c r="C279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D279">
+        <v>2</v>
+      </c>
+      <c r="E279" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>11855</v>
+        <v>12053</v>
       </c>
       <c r="B280" t="s">
         <v>281</v>
@@ -4971,10 +6695,16 @@
       <c r="C280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>11928</v>
+        <v>12071</v>
       </c>
       <c r="B281" t="s">
         <v>282</v>
@@ -4982,10 +6712,16 @@
       <c r="C281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>11943</v>
+        <v>12088</v>
       </c>
       <c r="B282" t="s">
         <v>283</v>
@@ -4993,10 +6729,16 @@
       <c r="C282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D282">
+        <v>2</v>
+      </c>
+      <c r="E282" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>11982</v>
+        <v>12105</v>
       </c>
       <c r="B283" t="s">
         <v>284</v>
@@ -5004,10 +6746,16 @@
       <c r="C283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>9</v>
+      </c>
+      <c r="E283" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>12052</v>
+        <v>12118</v>
       </c>
       <c r="B284" t="s">
         <v>285</v>
@@ -5015,10 +6763,16 @@
       <c r="C284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>5.5</v>
+      </c>
+      <c r="E284" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>12053</v>
+        <v>12119</v>
       </c>
       <c r="B285" t="s">
         <v>286</v>
@@ -5026,10 +6780,16 @@
       <c r="C285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>3</v>
+      </c>
+      <c r="E285" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>12071</v>
+        <v>12152</v>
       </c>
       <c r="B286" t="s">
         <v>287</v>
@@ -5037,10 +6797,16 @@
       <c r="C286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <v>3</v>
+      </c>
+      <c r="E286" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>12088</v>
+        <v>12352</v>
       </c>
       <c r="B287" t="s">
         <v>288</v>
@@ -5048,10 +6814,16 @@
       <c r="C287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>12105</v>
+        <v>12398</v>
       </c>
       <c r="B288" t="s">
         <v>289</v>
@@ -5059,10 +6831,16 @@
       <c r="C288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D288">
+        <v>10</v>
+      </c>
+      <c r="E288" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>12118</v>
+        <v>12425</v>
       </c>
       <c r="B289" t="s">
         <v>290</v>
@@ -5070,10 +6848,16 @@
       <c r="C289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D289">
+        <v>5.5</v>
+      </c>
+      <c r="E289" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>12119</v>
+        <v>12552</v>
       </c>
       <c r="B290" t="s">
         <v>291</v>
@@ -5081,10 +6865,16 @@
       <c r="C290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D290">
+        <v>8</v>
+      </c>
+      <c r="E290" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>12152</v>
+        <v>12555</v>
       </c>
       <c r="B291" t="s">
         <v>292</v>
@@ -5092,10 +6882,16 @@
       <c r="C291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D291">
+        <v>6</v>
+      </c>
+      <c r="E291" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>12352</v>
+        <v>12622</v>
       </c>
       <c r="B292" t="s">
         <v>293</v>
@@ -5103,10 +6899,16 @@
       <c r="C292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>12398</v>
+        <v>12634</v>
       </c>
       <c r="B293" t="s">
         <v>294</v>
@@ -5114,10 +6916,16 @@
       <c r="C293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D293">
+        <v>3</v>
+      </c>
+      <c r="E293" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>12425</v>
+        <v>12637</v>
       </c>
       <c r="B294" t="s">
         <v>295</v>
@@ -5125,10 +6933,16 @@
       <c r="C294">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D294">
+        <v>3</v>
+      </c>
+      <c r="E294" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>12552</v>
+        <v>12716</v>
       </c>
       <c r="B295" t="s">
         <v>296</v>
@@ -5136,10 +6950,16 @@
       <c r="C295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>12555</v>
+        <v>12773</v>
       </c>
       <c r="B296" t="s">
         <v>297</v>
@@ -5147,10 +6967,16 @@
       <c r="C296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D296">
+        <v>6</v>
+      </c>
+      <c r="E296" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>12622</v>
+        <v>12821</v>
       </c>
       <c r="B297" t="s">
         <v>298</v>
@@ -5158,10 +6984,16 @@
       <c r="C297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D297">
+        <v>5.5</v>
+      </c>
+      <c r="E297" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>12634</v>
+        <v>12905</v>
       </c>
       <c r="B298" t="s">
         <v>299</v>
@@ -5169,10 +7001,16 @@
       <c r="C298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <v>3</v>
+      </c>
+      <c r="E298" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>12637</v>
+        <v>12946</v>
       </c>
       <c r="B299" t="s">
         <v>300</v>
@@ -5180,10 +7018,16 @@
       <c r="C299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D299">
+        <v>5.5</v>
+      </c>
+      <c r="E299" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>12716</v>
+        <v>13056</v>
       </c>
       <c r="B300" t="s">
         <v>301</v>
@@ -5191,10 +7035,16 @@
       <c r="C300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>12773</v>
+        <v>13137</v>
       </c>
       <c r="B301" t="s">
         <v>302</v>
@@ -5202,10 +7052,16 @@
       <c r="C301">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D301">
+        <v>6</v>
+      </c>
+      <c r="E301" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>12821</v>
+        <v>13143</v>
       </c>
       <c r="B302" t="s">
         <v>303</v>
@@ -5213,10 +7069,16 @@
       <c r="C302">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <v>2</v>
+      </c>
+      <c r="E302" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>12905</v>
+        <v>13200</v>
       </c>
       <c r="B303" t="s">
         <v>304</v>
@@ -5224,10 +7086,16 @@
       <c r="C303">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303">
+        <v>6</v>
+      </c>
+      <c r="E303" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>12946</v>
+        <v>13257</v>
       </c>
       <c r="B304" t="s">
         <v>305</v>
@@ -5235,10 +7103,16 @@
       <c r="C304">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D304">
+        <v>2</v>
+      </c>
+      <c r="E304" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>13056</v>
+        <v>13260</v>
       </c>
       <c r="B305" t="s">
         <v>306</v>
@@ -5246,10 +7120,16 @@
       <c r="C305">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D305">
+        <v>2</v>
+      </c>
+      <c r="E305" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>13137</v>
+        <v>13296</v>
       </c>
       <c r="B306" t="s">
         <v>307</v>
@@ -5257,10 +7137,16 @@
       <c r="C306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <v>3</v>
+      </c>
+      <c r="E306" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>13143</v>
+        <v>13384</v>
       </c>
       <c r="B307" t="s">
         <v>308</v>
@@ -5268,10 +7154,16 @@
       <c r="C307">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D307">
+        <v>3</v>
+      </c>
+      <c r="E307" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>13200</v>
+        <v>13436</v>
       </c>
       <c r="B308" t="s">
         <v>309</v>
@@ -5279,10 +7171,16 @@
       <c r="C308">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>13257</v>
+        <v>13500</v>
       </c>
       <c r="B309" t="s">
         <v>310</v>
@@ -5290,10 +7188,16 @@
       <c r="C309">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D309">
+        <v>3</v>
+      </c>
+      <c r="E309" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>13260</v>
+        <v>13563</v>
       </c>
       <c r="B310" t="s">
         <v>311</v>
@@ -5301,10 +7205,16 @@
       <c r="C310">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D310">
+        <v>3</v>
+      </c>
+      <c r="E310" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>13296</v>
+        <v>13610</v>
       </c>
       <c r="B311" t="s">
         <v>312</v>
@@ -5312,10 +7222,16 @@
       <c r="C311">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D311">
+        <v>2</v>
+      </c>
+      <c r="E311" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>13317</v>
+        <v>13632</v>
       </c>
       <c r="B312" t="s">
         <v>313</v>
@@ -5323,10 +7239,16 @@
       <c r="C312">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D312">
+        <v>3</v>
+      </c>
+      <c r="E312" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>13384</v>
+        <v>13649</v>
       </c>
       <c r="B313" t="s">
         <v>314</v>
@@ -5334,10 +7256,16 @@
       <c r="C313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D313">
+        <v>6</v>
+      </c>
+      <c r="E313" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>13436</v>
+        <v>13652</v>
       </c>
       <c r="B314" t="s">
         <v>315</v>
@@ -5345,10 +7273,16 @@
       <c r="C314">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D314">
+        <v>5.5</v>
+      </c>
+      <c r="E314" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>13500</v>
+        <v>13724</v>
       </c>
       <c r="B315" t="s">
         <v>316</v>
@@ -5356,10 +7290,16 @@
       <c r="C315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D315">
+        <v>6</v>
+      </c>
+      <c r="E315" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>13563</v>
+        <v>13738</v>
       </c>
       <c r="B316" t="s">
         <v>317</v>
@@ -5367,10 +7307,16 @@
       <c r="C316">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>13610</v>
+        <v>13751</v>
       </c>
       <c r="B317" t="s">
         <v>318</v>
@@ -5378,10 +7324,16 @@
       <c r="C317">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D317">
+        <v>6</v>
+      </c>
+      <c r="E317" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>13632</v>
+        <v>13769</v>
       </c>
       <c r="B318" t="s">
         <v>319</v>
@@ -5389,10 +7341,16 @@
       <c r="C318">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <v>3</v>
+      </c>
+      <c r="E318" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>13649</v>
+        <v>13777</v>
       </c>
       <c r="B319" t="s">
         <v>320</v>
@@ -5400,10 +7358,16 @@
       <c r="C319">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D319">
+        <v>2</v>
+      </c>
+      <c r="E319" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>13652</v>
+        <v>13947</v>
       </c>
       <c r="B320" t="s">
         <v>321</v>
@@ -5411,10 +7375,16 @@
       <c r="C320">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <v>3</v>
+      </c>
+      <c r="E320" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>13724</v>
+        <v>13964</v>
       </c>
       <c r="B321" t="s">
         <v>322</v>
@@ -5422,10 +7392,16 @@
       <c r="C321">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>13738</v>
+        <v>14003</v>
       </c>
       <c r="B322" t="s">
         <v>323</v>
@@ -5433,10 +7409,16 @@
       <c r="C322">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>13751</v>
+        <v>14013</v>
       </c>
       <c r="B323" t="s">
         <v>324</v>
@@ -5444,10 +7426,16 @@
       <c r="C323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>13769</v>
+        <v>14035</v>
       </c>
       <c r="B324" t="s">
         <v>325</v>
@@ -5455,10 +7443,16 @@
       <c r="C324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>13777</v>
+        <v>14063</v>
       </c>
       <c r="B325" t="s">
         <v>326</v>
@@ -5466,32 +7460,50 @@
       <c r="C325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D325">
+        <v>5</v>
+      </c>
+      <c r="E325" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>13947</v>
+        <v>14099</v>
       </c>
       <c r="B326" t="s">
+        <v>328</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>3</v>
+      </c>
+      <c r="E326" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>14102</v>
+      </c>
+      <c r="B327" t="s">
         <v>327</v>
       </c>
-      <c r="C326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>13964</v>
-      </c>
-      <c r="B327" t="s">
-        <v>328</v>
-      </c>
       <c r="C327">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D327">
+        <v>3</v>
+      </c>
+      <c r="E327" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>14003</v>
+        <v>14142</v>
       </c>
       <c r="B328" t="s">
         <v>329</v>
@@ -5499,10 +7511,16 @@
       <c r="C328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D328">
+        <v>6</v>
+      </c>
+      <c r="E328" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>14013</v>
+        <v>14146</v>
       </c>
       <c r="B329" t="s">
         <v>330</v>
@@ -5510,10 +7528,16 @@
       <c r="C329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D329">
+        <v>2</v>
+      </c>
+      <c r="E329" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>14035</v>
+        <v>14179</v>
       </c>
       <c r="B330" t="s">
         <v>331</v>
@@ -5521,10 +7545,16 @@
       <c r="C330">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D330">
+        <v>3</v>
+      </c>
+      <c r="E330" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>14063</v>
+        <v>14180</v>
       </c>
       <c r="B331" t="s">
         <v>332</v>
@@ -5532,32 +7562,50 @@
       <c r="C331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D331">
+        <v>3</v>
+      </c>
+      <c r="E331" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>14099</v>
+        <v>14209</v>
       </c>
       <c r="B332" t="s">
+        <v>333</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>4</v>
+      </c>
+      <c r="E332" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>14285</v>
+      </c>
+      <c r="B333" t="s">
         <v>334</v>
       </c>
-      <c r="C332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>14102</v>
-      </c>
-      <c r="B333" t="s">
-        <v>333</v>
-      </c>
       <c r="C333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D333">
+        <v>1</v>
+      </c>
+      <c r="E333" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>14142</v>
+        <v>14321</v>
       </c>
       <c r="B334" t="s">
         <v>335</v>
@@ -5565,10 +7613,16 @@
       <c r="C334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D334">
+        <v>1</v>
+      </c>
+      <c r="E334" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>14146</v>
+        <v>14322</v>
       </c>
       <c r="B335" t="s">
         <v>336</v>
@@ -5576,10 +7630,16 @@
       <c r="C335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D335">
+        <v>1</v>
+      </c>
+      <c r="E335" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>14179</v>
+        <v>14359</v>
       </c>
       <c r="B336" t="s">
         <v>337</v>
@@ -5587,10 +7647,16 @@
       <c r="C336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D336">
+        <v>3</v>
+      </c>
+      <c r="E336" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>14180</v>
+        <v>14402</v>
       </c>
       <c r="B337" t="s">
         <v>338</v>
@@ -5598,10 +7664,16 @@
       <c r="C337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D337">
+        <v>6</v>
+      </c>
+      <c r="E337" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>14209</v>
+        <v>14415</v>
       </c>
       <c r="B338" t="s">
         <v>339</v>
@@ -5609,10 +7681,16 @@
       <c r="C338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D338">
+        <v>3</v>
+      </c>
+      <c r="E338" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>14285</v>
+        <v>14425</v>
       </c>
       <c r="B339" t="s">
         <v>340</v>
@@ -5620,10 +7698,16 @@
       <c r="C339">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D339">
+        <v>10</v>
+      </c>
+      <c r="E339" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>14321</v>
+        <v>14527</v>
       </c>
       <c r="B340" t="s">
         <v>341</v>
@@ -5631,10 +7715,16 @@
       <c r="C340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D340">
+        <v>10</v>
+      </c>
+      <c r="E340" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>14322</v>
+        <v>14540</v>
       </c>
       <c r="B341" t="s">
         <v>342</v>
@@ -5642,10 +7732,16 @@
       <c r="C341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D341">
+        <v>10</v>
+      </c>
+      <c r="E341" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>14359</v>
+        <v>14558</v>
       </c>
       <c r="B342" t="s">
         <v>343</v>
@@ -5653,10 +7749,16 @@
       <c r="C342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D342">
+        <v>3</v>
+      </c>
+      <c r="E342" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>14402</v>
+        <v>14585</v>
       </c>
       <c r="B343" t="s">
         <v>344</v>
@@ -5664,10 +7766,16 @@
       <c r="C343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D343">
+        <v>5.5</v>
+      </c>
+      <c r="E343" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>14415</v>
+        <v>14619</v>
       </c>
       <c r="B344" t="s">
         <v>345</v>
@@ -5675,10 +7783,16 @@
       <c r="C344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D344">
+        <v>2</v>
+      </c>
+      <c r="E344" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>14425</v>
+        <v>14622</v>
       </c>
       <c r="B345" t="s">
         <v>346</v>
@@ -5686,10 +7800,16 @@
       <c r="C345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D345">
+        <v>3</v>
+      </c>
+      <c r="E345" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>14527</v>
+        <v>14629</v>
       </c>
       <c r="B346" t="s">
         <v>347</v>
@@ -5697,10 +7817,16 @@
       <c r="C346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D346">
+        <v>3</v>
+      </c>
+      <c r="E346" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>14540</v>
+        <v>14667</v>
       </c>
       <c r="B347" t="s">
         <v>348</v>
@@ -5708,10 +7834,16 @@
       <c r="C347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D347">
+        <v>5.5</v>
+      </c>
+      <c r="E347" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>14558</v>
+        <v>14779</v>
       </c>
       <c r="B348" t="s">
         <v>349</v>
@@ -5719,10 +7851,16 @@
       <c r="C348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>14585</v>
+        <v>14792</v>
       </c>
       <c r="B349" t="s">
         <v>350</v>
@@ -5730,10 +7868,16 @@
       <c r="C349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D349">
+        <v>10</v>
+      </c>
+      <c r="E349" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>14619</v>
+        <v>14801</v>
       </c>
       <c r="B350" t="s">
         <v>351</v>
@@ -5741,10 +7885,16 @@
       <c r="C350">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D350">
+        <v>6</v>
+      </c>
+      <c r="E350" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>14622</v>
+        <v>14873</v>
       </c>
       <c r="B351" t="s">
         <v>352</v>
@@ -5752,10 +7902,16 @@
       <c r="C351">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D351">
+        <v>1</v>
+      </c>
+      <c r="E351" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>14629</v>
+        <v>14890</v>
       </c>
       <c r="B352" t="s">
         <v>353</v>
@@ -5763,10 +7919,16 @@
       <c r="C352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D352">
+        <v>5</v>
+      </c>
+      <c r="E352" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>14667</v>
+        <v>14911</v>
       </c>
       <c r="B353" t="s">
         <v>354</v>
@@ -5774,10 +7936,16 @@
       <c r="C353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D353">
+        <v>6</v>
+      </c>
+      <c r="E353" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>14779</v>
+        <v>14948</v>
       </c>
       <c r="B354" t="s">
         <v>355</v>
@@ -5785,10 +7953,16 @@
       <c r="C354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D354">
+        <v>3</v>
+      </c>
+      <c r="E354" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>14792</v>
+        <v>14949</v>
       </c>
       <c r="B355" t="s">
         <v>356</v>
@@ -5796,10 +7970,16 @@
       <c r="C355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D355">
+        <v>7</v>
+      </c>
+      <c r="E355" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>14801</v>
+        <v>15009</v>
       </c>
       <c r="B356" t="s">
         <v>357</v>
@@ -5807,10 +7987,16 @@
       <c r="C356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D356">
+        <v>5</v>
+      </c>
+      <c r="E356" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>14873</v>
+        <v>15127</v>
       </c>
       <c r="B357" t="s">
         <v>358</v>
@@ -5818,10 +8004,16 @@
       <c r="C357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D357">
+        <v>2</v>
+      </c>
+      <c r="E357" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>14890</v>
+        <v>15133</v>
       </c>
       <c r="B358" t="s">
         <v>359</v>
@@ -5829,10 +8021,16 @@
       <c r="C358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>14911</v>
+        <v>15212</v>
       </c>
       <c r="B359" t="s">
         <v>360</v>
@@ -5840,10 +8038,16 @@
       <c r="C359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D359">
+        <v>3</v>
+      </c>
+      <c r="E359" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>14948</v>
+        <v>15213</v>
       </c>
       <c r="B360" t="s">
         <v>361</v>
@@ -5851,10 +8055,16 @@
       <c r="C360">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D360">
+        <v>3</v>
+      </c>
+      <c r="E360" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>14949</v>
+        <v>15262</v>
       </c>
       <c r="B361" t="s">
         <v>362</v>
@@ -5862,10 +8072,16 @@
       <c r="C361">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D361">
+        <v>3</v>
+      </c>
+      <c r="E361" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>15009</v>
+        <v>15385</v>
       </c>
       <c r="B362" t="s">
         <v>363</v>
@@ -5873,10 +8089,16 @@
       <c r="C362">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D362">
+        <v>3</v>
+      </c>
+      <c r="E362" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>15127</v>
+        <v>15412</v>
       </c>
       <c r="B363" t="s">
         <v>364</v>
@@ -5884,10 +8106,16 @@
       <c r="C363">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>15133</v>
+        <v>15524</v>
       </c>
       <c r="B364" t="s">
         <v>365</v>
@@ -5895,10 +8123,16 @@
       <c r="C364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D364">
+        <v>3</v>
+      </c>
+      <c r="E364" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>15212</v>
+        <v>15567</v>
       </c>
       <c r="B365" t="s">
         <v>366</v>
@@ -5906,10 +8140,16 @@
       <c r="C365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D365">
+        <v>2</v>
+      </c>
+      <c r="E365" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>15213</v>
+        <v>15570</v>
       </c>
       <c r="B366" t="s">
         <v>367</v>
@@ -5917,10 +8157,16 @@
       <c r="C366">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D366">
+        <v>3</v>
+      </c>
+      <c r="E366" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>15262</v>
+        <v>15595</v>
       </c>
       <c r="B367" t="s">
         <v>368</v>
@@ -5928,10 +8174,16 @@
       <c r="C367">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D367">
+        <v>2</v>
+      </c>
+      <c r="E367" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>15385</v>
+        <v>15597</v>
       </c>
       <c r="B368" t="s">
         <v>369</v>
@@ -5939,10 +8191,16 @@
       <c r="C368">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D368">
+        <v>2</v>
+      </c>
+      <c r="E368" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>15412</v>
+        <v>15634</v>
       </c>
       <c r="B369" t="s">
         <v>370</v>
@@ -5950,10 +8208,16 @@
       <c r="C369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D369">
+        <v>2</v>
+      </c>
+      <c r="E369" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>15524</v>
+        <v>15641</v>
       </c>
       <c r="B370" t="s">
         <v>371</v>
@@ -5961,10 +8225,16 @@
       <c r="C370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D370">
+        <v>2</v>
+      </c>
+      <c r="E370" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>15567</v>
+        <v>15642</v>
       </c>
       <c r="B371" t="s">
         <v>372</v>
@@ -5972,10 +8242,16 @@
       <c r="C371">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D371">
+        <v>2</v>
+      </c>
+      <c r="E371" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>15570</v>
+        <v>15643</v>
       </c>
       <c r="B372" t="s">
         <v>373</v>
@@ -5983,10 +8259,16 @@
       <c r="C372">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>15595</v>
+        <v>15644</v>
       </c>
       <c r="B373" t="s">
         <v>374</v>
@@ -5994,10 +8276,16 @@
       <c r="C373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D373">
+        <v>1</v>
+      </c>
+      <c r="E373" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>15597</v>
+        <v>15690</v>
       </c>
       <c r="B374" t="s">
         <v>375</v>
@@ -6005,10 +8293,16 @@
       <c r="C374">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D374">
+        <v>7</v>
+      </c>
+      <c r="E374" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>15634</v>
+        <v>15691</v>
       </c>
       <c r="B375" t="s">
         <v>376</v>
@@ -6016,10 +8310,16 @@
       <c r="C375">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D375">
+        <v>3</v>
+      </c>
+      <c r="E375" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>15641</v>
+        <v>15780</v>
       </c>
       <c r="B376" t="s">
         <v>377</v>
@@ -6027,10 +8327,16 @@
       <c r="C376">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>15642</v>
+        <v>16051</v>
       </c>
       <c r="B377" t="s">
         <v>378</v>
@@ -6038,10 +8344,16 @@
       <c r="C377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D377">
+        <v>5.5</v>
+      </c>
+      <c r="E377" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>15643</v>
+        <v>16074</v>
       </c>
       <c r="B378" t="s">
         <v>379</v>
@@ -6049,10 +8361,16 @@
       <c r="C378">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D378">
+        <v>2</v>
+      </c>
+      <c r="E378" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>15644</v>
+        <v>16077</v>
       </c>
       <c r="B379" t="s">
         <v>380</v>
@@ -6060,10 +8378,16 @@
       <c r="C379">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D379">
+        <v>10</v>
+      </c>
+      <c r="E379" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>15690</v>
+        <v>16107</v>
       </c>
       <c r="B380" t="s">
         <v>381</v>
@@ -6071,10 +8395,16 @@
       <c r="C380">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D380">
+        <v>6</v>
+      </c>
+      <c r="E380" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>15691</v>
+        <v>16108</v>
       </c>
       <c r="B381" t="s">
         <v>382</v>
@@ -6082,10 +8412,16 @@
       <c r="C381">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D381">
+        <v>5.5</v>
+      </c>
+      <c r="E381" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>15780</v>
+        <v>16109</v>
       </c>
       <c r="B382" t="s">
         <v>383</v>
@@ -6093,10 +8429,16 @@
       <c r="C382">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D382">
+        <v>5.5</v>
+      </c>
+      <c r="E382" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>16051</v>
+        <v>16170</v>
       </c>
       <c r="B383" t="s">
         <v>384</v>
@@ -6104,10 +8446,16 @@
       <c r="C383">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D383">
+        <v>3</v>
+      </c>
+      <c r="E383" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>16074</v>
+        <v>16175</v>
       </c>
       <c r="B384" t="s">
         <v>385</v>
@@ -6115,10 +8463,16 @@
       <c r="C384">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D384">
+        <v>8</v>
+      </c>
+      <c r="E384" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>16077</v>
+        <v>16289</v>
       </c>
       <c r="B385" t="s">
         <v>386</v>
@@ -6126,10 +8480,16 @@
       <c r="C385">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D385">
+        <v>3</v>
+      </c>
+      <c r="E385" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>16107</v>
+        <v>16306</v>
       </c>
       <c r="B386" t="s">
         <v>387</v>
@@ -6137,10 +8497,16 @@
       <c r="C386">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D386">
+        <v>3</v>
+      </c>
+      <c r="E386" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>16108</v>
+        <v>16308</v>
       </c>
       <c r="B387" t="s">
         <v>388</v>
@@ -6148,10 +8514,16 @@
       <c r="C387">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D387">
+        <v>3</v>
+      </c>
+      <c r="E387" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>16109</v>
+        <v>16392</v>
       </c>
       <c r="B388" t="s">
         <v>389</v>
@@ -6159,10 +8531,16 @@
       <c r="C388">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D388">
+        <v>6</v>
+      </c>
+      <c r="E388" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>16170</v>
+        <v>16397</v>
       </c>
       <c r="B389" t="s">
         <v>390</v>
@@ -6170,10 +8548,16 @@
       <c r="C389">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>16175</v>
+        <v>16434</v>
       </c>
       <c r="B390" t="s">
         <v>391</v>
@@ -6181,10 +8565,16 @@
       <c r="C390">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D390">
+        <v>1</v>
+      </c>
+      <c r="E390" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>16289</v>
+        <v>16477</v>
       </c>
       <c r="B391" t="s">
         <v>392</v>
@@ -6192,10 +8582,16 @@
       <c r="C391">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D391">
+        <v>2</v>
+      </c>
+      <c r="E391" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>16306</v>
+        <v>16568</v>
       </c>
       <c r="B392" t="s">
         <v>393</v>
@@ -6203,10 +8599,16 @@
       <c r="C392">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>16308</v>
+        <v>16595</v>
       </c>
       <c r="B393" t="s">
         <v>394</v>
@@ -6214,10 +8616,16 @@
       <c r="C393">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D393">
+        <v>3</v>
+      </c>
+      <c r="E393" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>16392</v>
+        <v>16608</v>
       </c>
       <c r="B394" t="s">
         <v>395</v>
@@ -6225,10 +8633,16 @@
       <c r="C394">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D394">
+        <v>3</v>
+      </c>
+      <c r="E394" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>16397</v>
+        <v>16609</v>
       </c>
       <c r="B395" t="s">
         <v>396</v>
@@ -6236,10 +8650,16 @@
       <c r="C395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D395">
+        <v>3</v>
+      </c>
+      <c r="E395" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>16434</v>
+        <v>16612</v>
       </c>
       <c r="B396" t="s">
         <v>397</v>
@@ -6247,10 +8667,16 @@
       <c r="C396">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D396">
+        <v>1</v>
+      </c>
+      <c r="E396" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>16477</v>
+        <v>16614</v>
       </c>
       <c r="B397" t="s">
         <v>398</v>
@@ -6258,10 +8684,16 @@
       <c r="C397">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D397">
+        <v>2</v>
+      </c>
+      <c r="E397" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>16568</v>
+        <v>16615</v>
       </c>
       <c r="B398" t="s">
         <v>399</v>
@@ -6269,10 +8701,16 @@
       <c r="C398">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D398">
+        <v>2</v>
+      </c>
+      <c r="E398" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>16595</v>
+        <v>16628</v>
       </c>
       <c r="B399" t="s">
         <v>400</v>
@@ -6280,10 +8718,16 @@
       <c r="C399">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D399">
+        <v>1</v>
+      </c>
+      <c r="E399" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>16608</v>
+        <v>16642</v>
       </c>
       <c r="B400" t="s">
         <v>401</v>
@@ -6291,10 +8735,16 @@
       <c r="C400">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D400">
+        <v>1</v>
+      </c>
+      <c r="E400" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>16609</v>
+        <v>16647</v>
       </c>
       <c r="B401" t="s">
         <v>402</v>
@@ -6302,10 +8752,16 @@
       <c r="C401">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D401">
+        <v>6</v>
+      </c>
+      <c r="E401" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>16612</v>
+        <v>16651</v>
       </c>
       <c r="B402" t="s">
         <v>403</v>
@@ -6313,10 +8769,16 @@
       <c r="C402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D402">
+        <v>5.5</v>
+      </c>
+      <c r="E402" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>16614</v>
+        <v>16657</v>
       </c>
       <c r="B403" t="s">
         <v>404</v>
@@ -6324,10 +8786,16 @@
       <c r="C403">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D403">
+        <v>1</v>
+      </c>
+      <c r="E403" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>16615</v>
+        <v>16659</v>
       </c>
       <c r="B404" t="s">
         <v>405</v>
@@ -6335,10 +8803,16 @@
       <c r="C404">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D404">
+        <v>3</v>
+      </c>
+      <c r="E404" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>16628</v>
+        <v>16660</v>
       </c>
       <c r="B405" t="s">
         <v>406</v>
@@ -6346,10 +8820,16 @@
       <c r="C405">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D405">
+        <v>3</v>
+      </c>
+      <c r="E405" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>16642</v>
+        <v>16700</v>
       </c>
       <c r="B406" t="s">
         <v>407</v>
@@ -6357,10 +8837,16 @@
       <c r="C406">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D406">
+        <v>1</v>
+      </c>
+      <c r="E406" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>16647</v>
+        <v>16714</v>
       </c>
       <c r="B407" t="s">
         <v>408</v>
@@ -6368,10 +8854,16 @@
       <c r="C407">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D407">
+        <v>2</v>
+      </c>
+      <c r="E407" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>16651</v>
+        <v>16715</v>
       </c>
       <c r="B408" t="s">
         <v>409</v>
@@ -6379,10 +8871,16 @@
       <c r="C408">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D408">
+        <v>2</v>
+      </c>
+      <c r="E408" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>16657</v>
+        <v>16757</v>
       </c>
       <c r="B409" t="s">
         <v>410</v>
@@ -6390,10 +8888,16 @@
       <c r="C409">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D409">
+        <v>6</v>
+      </c>
+      <c r="E409" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>16659</v>
+        <v>16789</v>
       </c>
       <c r="B410" t="s">
         <v>411</v>
@@ -6401,10 +8905,16 @@
       <c r="C410">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D410">
+        <v>9</v>
+      </c>
+      <c r="E410" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>16660</v>
+        <v>16802</v>
       </c>
       <c r="B411" t="s">
         <v>412</v>
@@ -6412,10 +8922,16 @@
       <c r="C411">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D411">
+        <v>9</v>
+      </c>
+      <c r="E411" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>16700</v>
+        <v>16833</v>
       </c>
       <c r="B412" t="s">
         <v>413</v>
@@ -6423,10 +8939,16 @@
       <c r="C412">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D412">
+        <v>2</v>
+      </c>
+      <c r="E412" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>16714</v>
+        <v>16834</v>
       </c>
       <c r="B413" t="s">
         <v>414</v>
@@ -6434,10 +8956,16 @@
       <c r="C413">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D413">
+        <v>1</v>
+      </c>
+      <c r="E413" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>16715</v>
+        <v>16864</v>
       </c>
       <c r="B414" t="s">
         <v>415</v>
@@ -6445,10 +8973,16 @@
       <c r="C414">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D414">
+        <v>3</v>
+      </c>
+      <c r="E414" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>16757</v>
+        <v>16968</v>
       </c>
       <c r="B415" t="s">
         <v>416</v>
@@ -6456,10 +8990,16 @@
       <c r="C415">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D415">
+        <v>1</v>
+      </c>
+      <c r="E415" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>16789</v>
+        <v>17114</v>
       </c>
       <c r="B416" t="s">
         <v>417</v>
@@ -6467,10 +9007,16 @@
       <c r="C416">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D416">
+        <v>2</v>
+      </c>
+      <c r="E416" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>16802</v>
+        <v>17327</v>
       </c>
       <c r="B417" t="s">
         <v>418</v>
@@ -6478,10 +9024,16 @@
       <c r="C417">
         <v>1</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D417">
+        <v>3</v>
+      </c>
+      <c r="E417" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>16833</v>
+        <v>17381</v>
       </c>
       <c r="B418" t="s">
         <v>419</v>
@@ -6489,10 +9041,16 @@
       <c r="C418">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D418">
+        <v>2</v>
+      </c>
+      <c r="E418" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>16834</v>
+        <v>17442</v>
       </c>
       <c r="B419" t="s">
         <v>420</v>
@@ -6500,10 +9058,16 @@
       <c r="C419">
         <v>1</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D419">
+        <v>5.5</v>
+      </c>
+      <c r="E419" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>16864</v>
+        <v>17529</v>
       </c>
       <c r="B420" t="s">
         <v>421</v>
@@ -6511,10 +9075,16 @@
       <c r="C420">
         <v>1</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D420">
+        <v>10</v>
+      </c>
+      <c r="E420" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>16968</v>
+        <v>17541</v>
       </c>
       <c r="B421" t="s">
         <v>422</v>
@@ -6522,10 +9092,16 @@
       <c r="C421">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D421">
+        <v>10</v>
+      </c>
+      <c r="E421" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>17114</v>
+        <v>17558</v>
       </c>
       <c r="B422" t="s">
         <v>423</v>
@@ -6533,10 +9109,16 @@
       <c r="C422">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D422">
+        <v>9</v>
+      </c>
+      <c r="E422" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>17327</v>
+        <v>17559</v>
       </c>
       <c r="B423" t="s">
         <v>424</v>
@@ -6544,10 +9126,16 @@
       <c r="C423">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D423">
+        <v>2</v>
+      </c>
+      <c r="E423" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>17381</v>
+        <v>17586</v>
       </c>
       <c r="B424" t="s">
         <v>425</v>
@@ -6555,10 +9143,16 @@
       <c r="C424">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D424">
+        <v>6</v>
+      </c>
+      <c r="E424" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>17442</v>
+        <v>17716</v>
       </c>
       <c r="B425" t="s">
         <v>426</v>
@@ -6566,10 +9160,16 @@
       <c r="C425">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D425">
+        <v>3</v>
+      </c>
+      <c r="E425" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>17529</v>
+        <v>17719</v>
       </c>
       <c r="B426" t="s">
         <v>427</v>
@@ -6577,10 +9177,16 @@
       <c r="C426">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D426">
+        <v>3</v>
+      </c>
+      <c r="E426" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>17541</v>
+        <v>17720</v>
       </c>
       <c r="B427" t="s">
         <v>428</v>
@@ -6588,10 +9194,16 @@
       <c r="C427">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D427">
+        <v>1</v>
+      </c>
+      <c r="E427" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>17558</v>
+        <v>17745</v>
       </c>
       <c r="B428" t="s">
         <v>429</v>
@@ -6599,10 +9211,16 @@
       <c r="C428">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D428">
+        <v>1</v>
+      </c>
+      <c r="E428" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>17559</v>
+        <v>17858</v>
       </c>
       <c r="B429" t="s">
         <v>430</v>
@@ -6610,10 +9228,16 @@
       <c r="C429">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D429">
+        <v>1</v>
+      </c>
+      <c r="E429" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>17586</v>
+        <v>17902</v>
       </c>
       <c r="B430" t="s">
         <v>431</v>
@@ -6621,10 +9245,16 @@
       <c r="C430">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D430">
+        <v>10</v>
+      </c>
+      <c r="E430" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>17716</v>
+        <v>17907</v>
       </c>
       <c r="B431" t="s">
         <v>432</v>
@@ -6632,10 +9262,16 @@
       <c r="C431">
         <v>1</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D431">
+        <v>9</v>
+      </c>
+      <c r="E431" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>17719</v>
+        <v>17917</v>
       </c>
       <c r="B432" t="s">
         <v>433</v>
@@ -6643,10 +9279,16 @@
       <c r="C432">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D432">
+        <v>7</v>
+      </c>
+      <c r="E432" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>17720</v>
+        <v>17943</v>
       </c>
       <c r="B433" t="s">
         <v>434</v>
@@ -6654,10 +9296,16 @@
       <c r="C433">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D433">
+        <v>5.5</v>
+      </c>
+      <c r="E433" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>17745</v>
+        <v>17949</v>
       </c>
       <c r="B434" t="s">
         <v>435</v>
@@ -6665,10 +9313,16 @@
       <c r="C434">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D434">
+        <v>6</v>
+      </c>
+      <c r="E434" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>17858</v>
+        <v>18016</v>
       </c>
       <c r="B435" t="s">
         <v>436</v>
@@ -6676,10 +9330,16 @@
       <c r="C435">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D435">
+        <v>1</v>
+      </c>
+      <c r="E435" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>17902</v>
+        <v>18074</v>
       </c>
       <c r="B436" t="s">
         <v>437</v>
@@ -6687,10 +9347,16 @@
       <c r="C436">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D436">
+        <v>3</v>
+      </c>
+      <c r="E436" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>17907</v>
+        <v>18164</v>
       </c>
       <c r="B437" t="s">
         <v>438</v>
@@ -6698,10 +9364,16 @@
       <c r="C437">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D437">
+        <v>8</v>
+      </c>
+      <c r="E437" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>17917</v>
+        <v>18218</v>
       </c>
       <c r="B438" t="s">
         <v>439</v>
@@ -6709,10 +9381,16 @@
       <c r="C438">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D438">
+        <v>3</v>
+      </c>
+      <c r="E438" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>17943</v>
+        <v>18233</v>
       </c>
       <c r="B439" t="s">
         <v>440</v>
@@ -6720,10 +9398,16 @@
       <c r="C439">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D439">
+        <v>3</v>
+      </c>
+      <c r="E439" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>17949</v>
+        <v>18279</v>
       </c>
       <c r="B440" t="s">
         <v>441</v>
@@ -6731,10 +9415,16 @@
       <c r="C440">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D440">
+        <v>3</v>
+      </c>
+      <c r="E440" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>18016</v>
+        <v>18321</v>
       </c>
       <c r="B441" t="s">
         <v>442</v>
@@ -6742,10 +9432,16 @@
       <c r="C441">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D441">
+        <v>1</v>
+      </c>
+      <c r="E441" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>18074</v>
+        <v>18368</v>
       </c>
       <c r="B442" t="s">
         <v>443</v>
@@ -6753,10 +9449,16 @@
       <c r="C442">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D442">
+        <v>1</v>
+      </c>
+      <c r="E442" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>18164</v>
+        <v>18432</v>
       </c>
       <c r="B443" t="s">
         <v>444</v>
@@ -6764,10 +9466,16 @@
       <c r="C443">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D443">
+        <v>3</v>
+      </c>
+      <c r="E443" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>18218</v>
+        <v>18493</v>
       </c>
       <c r="B444" t="s">
         <v>445</v>
@@ -6775,10 +9483,16 @@
       <c r="C444">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D444">
+        <v>3</v>
+      </c>
+      <c r="E444" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>18233</v>
+        <v>18495</v>
       </c>
       <c r="B445" t="s">
         <v>446</v>
@@ -6786,10 +9500,16 @@
       <c r="C445">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D445">
+        <v>3</v>
+      </c>
+      <c r="E445" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>18279</v>
+        <v>18496</v>
       </c>
       <c r="B446" t="s">
         <v>447</v>
@@ -6797,10 +9517,16 @@
       <c r="C446">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D446">
+        <v>3</v>
+      </c>
+      <c r="E446" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>18321</v>
+        <v>18499</v>
       </c>
       <c r="B447" t="s">
         <v>448</v>
@@ -6808,10 +9534,16 @@
       <c r="C447">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D447">
+        <v>3</v>
+      </c>
+      <c r="E447" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>18368</v>
+        <v>18563</v>
       </c>
       <c r="B448" t="s">
         <v>449</v>
@@ -6819,10 +9551,16 @@
       <c r="C448">
         <v>1</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>18432</v>
+        <v>18767</v>
       </c>
       <c r="B449" t="s">
         <v>450</v>
@@ -6830,10 +9568,16 @@
       <c r="C449">
         <v>1</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>18493</v>
+        <v>18810</v>
       </c>
       <c r="B450" t="s">
         <v>451</v>
@@ -6841,10 +9585,16 @@
       <c r="C450">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D450">
+        <v>3</v>
+      </c>
+      <c r="E450" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>18495</v>
+        <v>18831</v>
       </c>
       <c r="B451" t="s">
         <v>452</v>
@@ -6852,10 +9602,16 @@
       <c r="C451">
         <v>1</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D451">
+        <v>10</v>
+      </c>
+      <c r="E451" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>18496</v>
+        <v>18879</v>
       </c>
       <c r="B452" t="s">
         <v>453</v>
@@ -6863,10 +9619,16 @@
       <c r="C452">
         <v>1</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D452">
+        <v>1</v>
+      </c>
+      <c r="E452" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>18499</v>
+        <v>18886</v>
       </c>
       <c r="B453" t="s">
         <v>454</v>
@@ -6874,10 +9636,16 @@
       <c r="C453">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D453">
+        <v>2</v>
+      </c>
+      <c r="E453" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>18563</v>
+        <v>18959</v>
       </c>
       <c r="B454" t="s">
         <v>455</v>
@@ -6885,10 +9653,16 @@
       <c r="C454">
         <v>1</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D454">
+        <v>1</v>
+      </c>
+      <c r="E454" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>18767</v>
+        <v>19040</v>
       </c>
       <c r="B455" t="s">
         <v>456</v>
@@ -6896,10 +9670,16 @@
       <c r="C455">
         <v>1</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D455">
+        <v>1</v>
+      </c>
+      <c r="E455" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>18810</v>
+        <v>19062</v>
       </c>
       <c r="B456" t="s">
         <v>457</v>
@@ -6907,10 +9687,16 @@
       <c r="C456">
         <v>1</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D456">
+        <v>3</v>
+      </c>
+      <c r="E456" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>18831</v>
+        <v>19065</v>
       </c>
       <c r="B457" t="s">
         <v>458</v>
@@ -6918,10 +9704,16 @@
       <c r="C457">
         <v>1</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D457">
+        <v>3</v>
+      </c>
+      <c r="E457" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>18879</v>
+        <v>19167</v>
       </c>
       <c r="B458" t="s">
         <v>459</v>
@@ -6929,10 +9721,16 @@
       <c r="C458">
         <v>1</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D458">
+        <v>3</v>
+      </c>
+      <c r="E458" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>18886</v>
+        <v>19175</v>
       </c>
       <c r="B459" t="s">
         <v>460</v>
@@ -6940,10 +9738,16 @@
       <c r="C459">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D459">
+        <v>3</v>
+      </c>
+      <c r="E459" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>18959</v>
+        <v>19245</v>
       </c>
       <c r="B460" t="s">
         <v>461</v>
@@ -6951,10 +9755,16 @@
       <c r="C460">
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D460">
+        <v>6</v>
+      </c>
+      <c r="E460" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>19040</v>
+        <v>19257</v>
       </c>
       <c r="B461" t="s">
         <v>462</v>
@@ -6962,10 +9772,16 @@
       <c r="C461">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D461">
+        <v>3</v>
+      </c>
+      <c r="E461" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>19062</v>
+        <v>19262</v>
       </c>
       <c r="B462" t="s">
         <v>463</v>
@@ -6973,10 +9789,16 @@
       <c r="C462">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D462">
+        <v>1</v>
+      </c>
+      <c r="E462" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>19065</v>
+        <v>19332</v>
       </c>
       <c r="B463" t="s">
         <v>464</v>
@@ -6984,10 +9806,16 @@
       <c r="C463">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D463">
+        <v>3</v>
+      </c>
+      <c r="E463" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>19167</v>
+        <v>19377</v>
       </c>
       <c r="B464" t="s">
         <v>465</v>
@@ -6995,10 +9823,16 @@
       <c r="C464">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D464">
+        <v>3</v>
+      </c>
+      <c r="E464" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>19175</v>
+        <v>19436</v>
       </c>
       <c r="B465" t="s">
         <v>466</v>
@@ -7006,10 +9840,16 @@
       <c r="C465">
         <v>1</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D465">
+        <v>3</v>
+      </c>
+      <c r="E465" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>19245</v>
+        <v>19465</v>
       </c>
       <c r="B466" t="s">
         <v>467</v>
@@ -7017,10 +9857,16 @@
       <c r="C466">
         <v>1</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D466">
+        <v>3</v>
+      </c>
+      <c r="E466" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>19257</v>
+        <v>19474</v>
       </c>
       <c r="B467" t="s">
         <v>468</v>
@@ -7028,10 +9874,16 @@
       <c r="C467">
         <v>1</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D467">
+        <v>3</v>
+      </c>
+      <c r="E467" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>19262</v>
+        <v>19486</v>
       </c>
       <c r="B468" t="s">
         <v>469</v>
@@ -7039,10 +9891,16 @@
       <c r="C468">
         <v>1</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D468">
+        <v>3</v>
+      </c>
+      <c r="E468" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>19332</v>
+        <v>19487</v>
       </c>
       <c r="B469" t="s">
         <v>470</v>
@@ -7050,90 +9908,138 @@
       <c r="C469">
         <v>1</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D469">
+        <v>3</v>
+      </c>
+      <c r="E469" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>19377</v>
-      </c>
-      <c r="B470" t="s">
-        <v>471</v>
-      </c>
-      <c r="C470">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471">
-        <v>19436</v>
-      </c>
-      <c r="B471" t="s">
-        <v>472</v>
-      </c>
-      <c r="C471">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472">
-        <v>19465</v>
-      </c>
-      <c r="B472" t="s">
-        <v>473</v>
-      </c>
-      <c r="C472">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473">
-        <v>19474</v>
-      </c>
-      <c r="B473" t="s">
-        <v>474</v>
-      </c>
-      <c r="C473">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474">
-        <v>19486</v>
-      </c>
-      <c r="B474" t="s">
-        <v>475</v>
-      </c>
-      <c r="C474">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475">
-        <v>19487</v>
-      </c>
-      <c r="B475" t="s">
-        <v>476</v>
-      </c>
-      <c r="C475">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476">
         <f>[1]Wordsworth_WordFreq!A19523</f>
         <v>19522</v>
       </c>
-      <c r="B476" t="str">
+      <c r="B470" t="str">
         <f>[1]Wordsworth_WordFreq!B19523</f>
         <v>earh</v>
       </c>
+      <c r="C470">
+        <f>[1]Wordsworth_WordFreq!C19523</f>
+        <v>1</v>
+      </c>
+      <c r="D470">
+        <v>3</v>
+      </c>
+      <c r="E470" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>19582</v>
+      </c>
+      <c r="B471" t="s">
+        <v>471</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471">
+        <v>3</v>
+      </c>
+      <c r="E471" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>19647</v>
+      </c>
+      <c r="B472" t="s">
+        <v>472</v>
+      </c>
+      <c r="C472">
+        <v>1</v>
+      </c>
+      <c r="D472">
+        <v>3</v>
+      </c>
+      <c r="E472" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>19649</v>
+      </c>
+      <c r="B473" t="s">
+        <v>473</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473">
+        <v>5.5</v>
+      </c>
+      <c r="E473" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>19683</v>
+      </c>
+      <c r="B474" t="s">
+        <v>474</v>
+      </c>
+      <c r="C474">
+        <v>1</v>
+      </c>
+      <c r="D474">
+        <v>3</v>
+      </c>
+      <c r="E474" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>19726</v>
+      </c>
+      <c r="B475" t="s">
+        <v>475</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
+      <c r="E475" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>19730</v>
+      </c>
+      <c r="B476" t="s">
+        <v>476</v>
+      </c>
       <c r="C476">
-        <f>[1]Wordsworth_WordFreq!C19523</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D476">
+        <v>3</v>
+      </c>
+      <c r="E476" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>19582</v>
+        <v>19749</v>
       </c>
       <c r="B477" t="s">
         <v>477</v>
@@ -7141,10 +10047,16 @@
       <c r="C477">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D477">
+        <v>3</v>
+      </c>
+      <c r="E477" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>19647</v>
+        <v>19940</v>
       </c>
       <c r="B478" t="s">
         <v>478</v>
@@ -7152,10 +10064,16 @@
       <c r="C478">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D478">
+        <v>3</v>
+      </c>
+      <c r="E478" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>19649</v>
+        <v>19971</v>
       </c>
       <c r="B479" t="s">
         <v>479</v>
@@ -7163,10 +10081,16 @@
       <c r="C479">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D479">
+        <v>3</v>
+      </c>
+      <c r="E479" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>19683</v>
+        <v>20160</v>
       </c>
       <c r="B480" t="s">
         <v>480</v>
@@ -7174,10 +10098,16 @@
       <c r="C480">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D480">
+        <v>3</v>
+      </c>
+      <c r="E480" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>19726</v>
+        <v>20241</v>
       </c>
       <c r="B481" t="s">
         <v>481</v>
@@ -7185,10 +10115,16 @@
       <c r="C481">
         <v>1</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D481">
+        <v>6</v>
+      </c>
+      <c r="E481" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>19730</v>
+        <v>20318</v>
       </c>
       <c r="B482" t="s">
         <v>482</v>
@@ -7196,71 +10132,11 @@
       <c r="C482">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483">
-        <v>19749</v>
-      </c>
-      <c r="B483" t="s">
-        <v>483</v>
-      </c>
-      <c r="C483">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484">
-        <v>19940</v>
-      </c>
-      <c r="B484" t="s">
-        <v>484</v>
-      </c>
-      <c r="C484">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485">
-        <v>19971</v>
-      </c>
-      <c r="B485" t="s">
-        <v>485</v>
-      </c>
-      <c r="C485">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486">
-        <v>20160</v>
-      </c>
-      <c r="B486" t="s">
-        <v>486</v>
-      </c>
-      <c r="C486">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487">
-        <v>20241</v>
-      </c>
-      <c r="B487" t="s">
-        <v>487</v>
-      </c>
-      <c r="C487">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488">
-        <v>20318</v>
-      </c>
-      <c r="B488" t="s">
-        <v>488</v>
-      </c>
-      <c r="C488">
-        <v>1</v>
+      <c r="D482">
+        <v>2</v>
+      </c>
+      <c r="E482" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
